--- a/config_8.10/banner_style_ui.xlsx
+++ b/config_8.10/banner_style_ui.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="198">
   <si>
     <t>id|行号，从1开始，连续就行</t>
   </si>
@@ -840,10 +840,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>cpl_cjj</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>"</t>
     </r>
@@ -861,7 +857,19 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>banner_show_not_newplayer</t>
+    <t>cpl_cjj</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1542,7 +1550,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K99" sqref="K99"/>
+      <selection pane="bottomLeft" activeCell="L97" sqref="L97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4298,7 +4306,7 @@
         <v>111</v>
       </c>
       <c r="G90" s="41" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H90" s="6" t="s">
         <v>178</v>
@@ -4455,7 +4463,7 @@
         <v>112</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>190</v>
@@ -4487,10 +4495,10 @@
         <v>120</v>
       </c>
       <c r="G96" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="H96" s="12" t="s">
         <v>193</v>
-      </c>
-      <c r="H96" s="12" t="s">
-        <v>194</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>19</v>
@@ -4502,7 +4510,39 @@
         <v>1627315199</v>
       </c>
     </row>
-    <row r="98" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="6">
+        <v>96</v>
+      </c>
+      <c r="B97" s="6">
+        <v>96</v>
+      </c>
+      <c r="C97" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="E97" s="6">
+        <v>1</v>
+      </c>
+      <c r="F97" s="6">
+        <v>150</v>
+      </c>
+      <c r="G97" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="J97" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K97" s="7">
+        <v>1627948800</v>
+      </c>
+      <c r="L97" s="7">
+        <v>1630339199</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K98" s="7" t="s">
         <v>191</v>
       </c>
